--- a/plots/code_data_availability_by_XAI.xlsx
+++ b/plots/code_data_availability_by_XAI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F3BAA1-1264-48B1-8A0B-4DCBE146936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F4E614-270D-43B0-B944-3FB495D92412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{E97693CD-3E7B-4EC0-B29F-D2C3FA3256B9}"/>
   </bookViews>
@@ -172,10 +172,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -257,7 +257,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:shade val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -420,7 +422,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -633,7 +635,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent5">
+                <a:tint val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1772,39 +1776,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
 </cs:colorStyle>
 </file>
 
@@ -3629,7 +3602,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
